--- a/Collected Data/Results Table.xlsx
+++ b/Collected Data/Results Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Documents\GitHub\98124643-Capstone\Collected Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC04CA9-F311-4D5F-9BDF-8233B8622E5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943A34D9-F338-423A-A3F1-8E2EB2C8E2DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{45B24FEA-62BE-413A-8B62-54724F6D5479}"/>
+    <workbookView xWindow="5964" yWindow="600" windowWidth="17280" windowHeight="10992" firstSheet="1" activeTab="3" xr2:uid="{45B24FEA-62BE-413A-8B62-54724F6D5479}"/>
   </bookViews>
   <sheets>
     <sheet name="No Bottle" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
   <si>
     <t>Zero</t>
   </si>
@@ -72,41 +72,101 @@
     <t>CoM 10</t>
   </si>
   <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
     <t>No Bottle</t>
   </si>
   <si>
-    <t>Bottle</t>
-  </si>
-  <si>
-    <t>Angle 1</t>
-  </si>
-  <si>
-    <t>Mean 1</t>
-  </si>
-  <si>
-    <t>Angle 2</t>
-  </si>
-  <si>
-    <t>Mean 2</t>
-  </si>
-  <si>
     <t>Bottle with Water</t>
   </si>
   <si>
     <t>Bottle with Oil</t>
+  </si>
+  <si>
+    <t>Reading Type</t>
+  </si>
+  <si>
+    <r>
+      <t>Angle (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean Torque (Nm)</t>
+  </si>
+  <si>
+    <t>Only Bottle</t>
+  </si>
+  <si>
+    <t>Mean Torque 1 (Nm)</t>
+  </si>
+  <si>
+    <t>Mean Torque 2 (Nm)</t>
+  </si>
+  <si>
+    <r>
+      <t>Angle 1 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Angle 2 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean Torque 1</t>
+  </si>
+  <si>
+    <t>Mean Torque 2</t>
+  </si>
+  <si>
+    <t>Bottle with Water - Torque Data Comparison</t>
+  </si>
+  <si>
+    <t>Mean Torque 1 Zero Adjusted (Nm)</t>
+  </si>
+  <si>
+    <t>Mean Torque 2 Zero Adjusted (Nm)</t>
+  </si>
+  <si>
+    <t>Bottle with Oil - Torque Data Comparison</t>
+  </si>
+  <si>
+    <t>Difference between readings 1-2 (Nm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +188,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,17 +220,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +623,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,139 +633,142 @@
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>13</v>
+    <row r="2" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>4.6998415507533599E-4</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>9.9994200000000006</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>-8.9765496440342998E-2</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>19.714700000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>-0.10909458132170401</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>29.711400000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>-0.112744514094739</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>39.714300000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>-0.14037827972898001</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>49.7119</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>-0.15449456841832199</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>-10.2859</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>1.0135028837273999E-2</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>-20.285399999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>-1.8475328895780001E-3</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>-30.2836</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>-6.1115585510269996E-3</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>-40.287599999999998</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>-2.1860659699944E-2</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>-50.288200000000003</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>-4.0660175619598997E-2</v>
       </c>
     </row>
@@ -634,149 +786,152 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>1.129251696223E-3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>10.0022</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>-6.7898761918951001E-2</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>19.714700000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>-9.6827512443003999E-2</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>29.7135</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>-0.108395671133956</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>39.712899999999998</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>-0.14474165970328101</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>49.7119</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>-0.164229923488035</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>-10.2859</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>0.10158878923376</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="9">
         <v>-20.286799999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>9.9088677755267002E-2</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>-30.2836</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>9.9932152658807005E-2</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>-40.286200000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>9.4566728597468994E-2</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>-50.286099999999998</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>8.5201848491695001E-2</v>
       </c>
     </row>
@@ -790,243 +945,422 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616B9CE4-26BC-47E1-9D7D-586495C93350}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="J3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>5.8800778042069997E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>-7.4909192014510004E-3</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="J4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="K4" s="9">
+        <f>(D5 - $D$4)</f>
+        <v>-9.761197383766701E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <f>(F5 - $F$4)</f>
+        <v>-7.5136864268195991E-2</v>
+      </c>
+      <c r="M4" s="9">
+        <f>K4-L4</f>
+        <v>-2.2475109569471019E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
         <v>10.0022</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>-9.1731896033460006E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>9.9994200000000006</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>-8.2627783469646998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="J5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="K5" s="9">
+        <f t="shared" ref="K5:K13" si="0">(D6 - $D$4)</f>
+        <v>-0.15869533530010099</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" ref="L5:L13" si="1">(F6 - $F$4)</f>
+        <v>-0.14801238468735201</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" ref="M5:M13" si="2">K5-L5</f>
+        <v>-1.0682950612748987E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
         <v>19.715399999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>-0.152815257495894</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>19.7119</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>-0.15550330388880301</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="J6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="K6" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.205726003549004</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.192277631733865</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.3448371815138999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
         <v>29.711400000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>-0.19984592574479701</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>29.714099999999998</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>-0.19976855093531601</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="J7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="K7" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.27395529855469403</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.26314818207886298</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.0807116475831047E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
         <v>39.712200000000003</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>-0.26807522075048701</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>39.712200000000003</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>-0.27063910128031399</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="J8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="K8" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.31550403657958204</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.31161692318974599</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="2"/>
+        <v>-3.8871133898360499E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
         <v>49.714700000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>-0.30962395877537502</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>49.713999999999999</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>-0.31910784239119699</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="J9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="K9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.214689611192832</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.23696243058375902</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.2272819390927012E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
         <v>-10.2859</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>0.22056968899703899</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>-10.283099999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>0.22947151138230801</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="J10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="K10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24615219683209602</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.268528319920942</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.2376123088845984E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
         <v>-20.285399999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>0.25203227463630301</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>-20.286799999999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>0.261037400719491</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="J11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="K11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.27464887924651699</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29811186351059599</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.3462984264079001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
         <v>-30.287800000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>0.280528957050724</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>-30.284300000000002</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <v>0.29062094430914498</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="J12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="K12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.30230147483452097</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.33127635977627101</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.8974884941750045E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9">
         <v>-40.286900000000003</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>0.30818155263872798</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>-40.286200000000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>0.32378544057482</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="J13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.32839927939622898</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.35458829858667301</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.6189019190444029E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9">
         <v>-50.287500000000001</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>0.334279357200436</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>-50.285499999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <v>0.347097379385222</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556C1798-C377-4B30-9663-21B2254DB161}">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,220 +1370,399 @@
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" customWidth="1"/>
+    <col min="11" max="11" width="33.77734375" customWidth="1"/>
+    <col min="12" max="12" width="34.77734375" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="2:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <v>-5.9495567183890001E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="9">
         <v>9.3074264671470005E-3</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="J4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="K4" s="9">
+        <f>(D5 - $D$4)</f>
+        <v>2.2271001517460001E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <f>(F5 - $F$4)</f>
+        <v>-0.12243468365468299</v>
+      </c>
+      <c r="M4" s="9">
+        <f>K4-L4</f>
+        <v>0.14470568517214299</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
         <v>10.0001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="9">
         <v>1.6321444799071001E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>10.0022</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="9">
         <v>-0.113127257187536</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="J5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="K5" s="9">
+        <f t="shared" ref="K5:K13" si="0">(D6 - $D$4)</f>
+        <v>-4.3000694733162995E-2</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" ref="L5:L13" si="1">(F6 - $F$4)</f>
+        <v>-0.18412460690322699</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" ref="M5:M13" si="2">K5-L5</f>
+        <v>0.14112391217006398</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
         <v>19.713999999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>-4.8950251451551997E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>19.714700000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>-0.17481718043607999</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="J6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="K6" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.8907061479046007E-2</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.227943372345149</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="2"/>
+        <v>0.13903631086610299</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
         <v>29.716899999999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>-9.4856618197435003E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>29.7135</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>-0.218635945878002</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="J7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="K7" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.16079946704836398</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.29372904697810598</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="2"/>
+        <v>0.132929579929742</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
         <v>39.712899999999998</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="9">
         <v>-0.16674902376675299</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>39.714300000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>-0.28442162051095898</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="J8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="K8" s="9">
+        <f t="shared" si="0"/>
+        <v>-0.20851542302182999</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.33928814108488298</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="2"/>
+        <v>0.13077271806305299</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
         <v>49.713999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>-0.214464979740219</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>49.7119</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="9">
         <v>-0.32998071461773598</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="J9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="K9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.38397948360564599</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.230700729197264</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="2"/>
+        <v>0.15327875440838198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
         <v>-10.2859</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="9">
         <v>0.37802992688725701</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>-10.2866</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <v>0.240008155664411</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="J10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="K10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.420262961926612</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.26246147442920803</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="2"/>
+        <v>0.15780148749740397</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
         <v>-20.286100000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="9">
         <v>0.41431340520822302</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>-20.286799999999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <v>0.27176890089635503</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="J11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="K11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.45964953917962598</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29224500503925899</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="2"/>
+        <v>0.16740453414036699</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
         <v>-30.284300000000002</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>0.45369998246123699</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>-30.285</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <v>0.30155243150640598</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="J12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="K12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.48919977801597997</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.32230269149426</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="2"/>
+        <v>0.16689708652171997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9">
         <v>-40.286900000000003</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>0.48325022129759099</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>-40.2849</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>0.33161011796140699</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="J13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.51524635108253702</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34381102916713802</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="2"/>
+        <v>0.17143532191539901</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9">
         <v>-50.284799999999997</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>0.50929679436414799</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>-50.286799999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="9">
         <v>0.35311845563428501</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Collected Data/Results Table.xlsx
+++ b/Collected Data/Results Table.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Documents\GitHub\98124643-Capstone\Collected Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943A34D9-F338-423A-A3F1-8E2EB2C8E2DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCF0998-62B3-4C86-8D90-93F338CDD46B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5964" yWindow="600" windowWidth="17280" windowHeight="10992" firstSheet="1" activeTab="3" xr2:uid="{45B24FEA-62BE-413A-8B62-54724F6D5479}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{45B24FEA-62BE-413A-8B62-54724F6D5479}"/>
   </bookViews>
   <sheets>
     <sheet name="No Bottle" sheetId="1" r:id="rId1"/>
     <sheet name="Bottle" sheetId="4" r:id="rId2"/>
     <sheet name="Bottle with Water" sheetId="5" r:id="rId3"/>
     <sheet name="Bottle with Oil" sheetId="6" r:id="rId4"/>
+    <sheet name="Difference Calculations" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>Zero</t>
   </si>
@@ -161,6 +162,21 @@
   <si>
     <t>Difference between readings 1-2 (Nm)</t>
   </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Average Difference (Nm)</t>
+  </si>
+  <si>
+    <t>Std Deviation</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -272,12 +288,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,22 +356,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,6 +386,1378 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Analysis of differences</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> of readings between experiments with water and oil</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12834983498349836"/>
+          <c:y val="2.7731558513588463E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10699338139590699"/>
+          <c:y val="0.1192457016084304"/>
+          <c:w val="0.6715146435903433"/>
+          <c:h val="0.76648630235696413"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Water</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Difference Calculations'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-2.2475109569471019E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0682950612748987E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3448371815138999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0807116475831047E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.8871133898360499E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2272819390927012E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2376123088845984E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.3462984264079001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8974884941750045E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.6189019190444029E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-688D-4D6E-8D96-98545E120070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Oil</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>9</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Difference Calculations'!$B$17:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14470568517214299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14112391217006398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13903631086610299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.132929579929742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13077271806305299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15327875440838198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15780148749740397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16740453414036699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16689708652171997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17143532191539901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-688D-4D6E-8D96-98545E120070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Water Mean Difference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Difference Calculations'!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-1.8457649273907216E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.8457649273907216E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-688D-4D6E-8D96-98545E120070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Oil Mean Difference</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>9</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Difference Calculations'!$D$17:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.15053853906843767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15053853906843767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-688D-4D6E-8D96-98545E120070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1500685679"/>
+        <c:axId val="1500687343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1500685679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" b="1"/>
+                  <a:t>CoM 1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" b="1" baseline="0"/>
+                  <a:t>     CoM 2      CoM 3      CoM 4      CoM 5       CoM 6      CoM 7      CoM 8      CoM 9      CoM 10</a:t>
+                </a:r>
+                <a:br>
+                  <a:rPr lang="en-AU"/>
+                </a:br>
+                <a:r>
+                  <a:rPr lang="en-AU" b="1"/>
+                  <a:t>Experiment Angular</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" b="1" baseline="0"/>
+                  <a:t> Position</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.10707102206283621"/>
+              <c:y val="0.89746594695629767"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1500687343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1500687343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" b="1"/>
+                  <a:t>Difference</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" b="1" baseline="0"/>
+                  <a:t> in torque reading between experiemnts (Nm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1500685679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5406FB40-A751-4FF8-9C26-4B19B08E36EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,141 +2071,141 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>4.6998415507533599E-4</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>9.9994200000000006</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>-8.9765496440342998E-2</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>19.714700000000001</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>-0.10909458132170401</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>29.711400000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>-0.112744514094739</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>39.714300000000001</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>-0.14037827972898001</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>49.7119</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>-0.15449456841832199</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>-10.2859</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>1.0135028837273999E-2</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="4">
         <v>-20.285399999999999</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>-1.8475328895780001E-3</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>-30.2836</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>-6.1115585510269996E-3</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="4">
         <v>-40.287599999999998</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>-2.1860659699944E-2</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>-50.288200000000003</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <v>-4.0660175619598997E-2</v>
       </c>
     </row>
@@ -797,141 +2234,141 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>1.129251696223E-3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>10.0022</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>-6.7898761918951001E-2</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>19.714700000000001</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>-9.6827512443003999E-2</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>29.7135</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>-0.108395671133956</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>39.712899999999998</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>-0.14474165970328101</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>49.7119</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>-0.164229923488035</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>-10.2859</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>0.10158878923376</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="4">
         <v>-20.286799999999999</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>9.9088677755267002E-2</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>-30.2836</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>9.9932152658807005E-2</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="4">
         <v>-40.286200000000001</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>9.4566728597468994E-2</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>-50.286099999999998</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <v>8.5201848491695001E-2</v>
       </c>
     </row>
@@ -947,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616B9CE4-26BC-47E1-9D7D-586495C93350}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,383 +2402,373 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="J2" s="1" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="J2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="2:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>5.8800778042069997E-3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="4">
         <v>-7.4909192014510004E-3</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="4">
         <f>(D5 - $D$4)</f>
         <v>-9.761197383766701E-2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="4">
         <f>(F5 - $F$4)</f>
         <v>-7.5136864268195991E-2</v>
       </c>
-      <c r="M4" s="9">
-        <f>K4-L4</f>
+      <c r="M4" s="4">
         <v>-2.2475109569471019E-2</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>10.0022</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>-9.1731896033460006E-2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="4">
         <v>9.9994200000000006</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="4">
         <v>-8.2627783469646998E-2</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="4">
         <f t="shared" ref="K5:K13" si="0">(D6 - $D$4)</f>
         <v>-0.15869533530010099</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="4">
         <f t="shared" ref="L5:L13" si="1">(F6 - $F$4)</f>
         <v>-0.14801238468735201</v>
       </c>
-      <c r="M5" s="9">
-        <f t="shared" ref="M5:M13" si="2">K5-L5</f>
+      <c r="M5" s="4">
         <v>-1.0682950612748987E-2</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>19.715399999999999</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>-0.152815257495894</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="4">
         <v>19.7119</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="4">
         <v>-0.15550330388880301</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>-0.205726003549004</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="4">
         <f t="shared" si="1"/>
         <v>-0.192277631733865</v>
       </c>
-      <c r="M6" s="9">
-        <f t="shared" si="2"/>
+      <c r="M6" s="4">
         <v>-1.3448371815138999E-2</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>29.711400000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>-0.19984592574479701</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>29.714099999999998</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="4">
         <v>-0.19976855093531601</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>-0.27395529855469403</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
         <v>-0.26314818207886298</v>
       </c>
-      <c r="M7" s="9">
-        <f t="shared" si="2"/>
+      <c r="M7" s="4">
         <v>-1.0807116475831047E-2</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>39.712200000000003</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>-0.26807522075048701</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>39.712200000000003</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="4">
         <v>-0.27063910128031399</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>-0.31550403657958204</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="4">
         <f t="shared" si="1"/>
         <v>-0.31161692318974599</v>
       </c>
-      <c r="M8" s="9">
-        <f t="shared" si="2"/>
+      <c r="M8" s="4">
         <v>-3.8871133898360499E-3</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>49.714700000000001</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>-0.30962395877537502</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>49.713999999999999</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="4">
         <v>-0.31910784239119699</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>0.214689611192832</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>0.23696243058375902</v>
       </c>
-      <c r="M9" s="9">
-        <f t="shared" si="2"/>
+      <c r="M9" s="4">
         <v>-2.2272819390927012E-2</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>-10.2859</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>0.22056968899703899</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>-10.283099999999999</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="4">
         <v>0.22947151138230801</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>0.24615219683209602</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="4">
         <f t="shared" si="1"/>
         <v>0.268528319920942</v>
       </c>
-      <c r="M10" s="9">
-        <f t="shared" si="2"/>
+      <c r="M10" s="4">
         <v>-2.2376123088845984E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="4">
         <v>-20.285399999999999</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>0.25203227463630301</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>-20.286799999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="4">
         <v>0.261037400719491</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>0.27464887924651699</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="4">
         <f t="shared" si="1"/>
         <v>0.29811186351059599</v>
       </c>
-      <c r="M11" s="9">
-        <f t="shared" si="2"/>
+      <c r="M11" s="4">
         <v>-2.3462984264079001E-2</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>-30.287800000000001</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>0.280528957050724</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>-30.284300000000002</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="4">
         <v>0.29062094430914498</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>0.30230147483452097</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="4">
         <f t="shared" si="1"/>
         <v>0.33127635977627101</v>
       </c>
-      <c r="M12" s="9">
-        <f t="shared" si="2"/>
+      <c r="M12" s="4">
         <v>-2.8974884941750045E-2</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="4">
         <v>-40.286900000000003</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>0.30818155263872798</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="4">
         <v>-40.286200000000001</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="4">
         <v>0.32378544057482</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>0.32839927939622898</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="4">
         <f t="shared" si="1"/>
         <v>0.35458829858667301</v>
       </c>
-      <c r="M13" s="9">
-        <f t="shared" si="2"/>
+      <c r="M13" s="4">
         <v>-2.6189019190444029E-2</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>-50.287500000000001</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <v>0.334279357200436</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>-50.285499999999999</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="4">
         <v>0.347097379385222</v>
       </c>
     </row>
@@ -1359,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556C1798-C377-4B30-9663-21B2254DB161}">
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,383 +2804,383 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="J2" s="1" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="2:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>-5.9495567183890001E-3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="4">
         <v>9.3074264671470005E-3</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="4">
         <f>(D5 - $D$4)</f>
         <v>2.2271001517460001E-2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="4">
         <f>(F5 - $F$4)</f>
         <v>-0.12243468365468299</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="4">
         <f>K4-L4</f>
         <v>0.14470568517214299</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>10.0001</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>1.6321444799071001E-2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="4">
         <v>10.0022</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="4">
         <v>-0.113127257187536</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="4">
         <f t="shared" ref="K5:K13" si="0">(D6 - $D$4)</f>
         <v>-4.3000694733162995E-2</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="4">
         <f t="shared" ref="L5:L13" si="1">(F6 - $F$4)</f>
         <v>-0.18412460690322699</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="4">
         <f t="shared" ref="M5:M13" si="2">K5-L5</f>
         <v>0.14112391217006398</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>19.713999999999999</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>-4.8950251451551997E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="4">
         <v>19.714700000000001</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="4">
         <v>-0.17481718043607999</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>-8.8907061479046007E-2</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="4">
         <f t="shared" si="1"/>
         <v>-0.227943372345149</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="4">
         <f t="shared" si="2"/>
         <v>0.13903631086610299</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>29.716899999999999</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>-9.4856618197435003E-2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>29.7135</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="4">
         <v>-0.218635945878002</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>-0.16079946704836398</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
         <v>-0.29372904697810598</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="4">
         <f t="shared" si="2"/>
         <v>0.132929579929742</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>39.712899999999998</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>-0.16674902376675299</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>39.714300000000001</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="4">
         <v>-0.28442162051095898</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>-0.20851542302182999</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="4">
         <f t="shared" si="1"/>
         <v>-0.33928814108488298</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="4">
         <f t="shared" si="2"/>
         <v>0.13077271806305299</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>49.713999999999999</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>-0.214464979740219</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>49.7119</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="4">
         <v>-0.32998071461773598</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>0.38397948360564599</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>0.230700729197264</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="4">
         <f t="shared" si="2"/>
         <v>0.15327875440838198</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>-10.2859</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>0.37802992688725701</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>-10.2866</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="4">
         <v>0.240008155664411</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>0.420262961926612</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="4">
         <f t="shared" si="1"/>
         <v>0.26246147442920803</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="4">
         <f t="shared" si="2"/>
         <v>0.15780148749740397</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="4">
         <v>-20.286100000000001</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>0.41431340520822302</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>-20.286799999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="4">
         <v>0.27176890089635503</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>0.45964953917962598</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="4">
         <f t="shared" si="1"/>
         <v>0.29224500503925899</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="4">
         <f t="shared" si="2"/>
         <v>0.16740453414036699</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>-30.284300000000002</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>0.45369998246123699</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>-30.285</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="4">
         <v>0.30155243150640598</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>0.48919977801597997</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="4">
         <f t="shared" si="1"/>
         <v>0.32230269149426</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="4">
         <f t="shared" si="2"/>
         <v>0.16689708652171997</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="4">
         <v>-40.286900000000003</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>0.48325022129759099</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="4">
         <v>-40.2849</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="4">
         <v>0.33161011796140699</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>0.51524635108253702</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="4">
         <f t="shared" si="1"/>
         <v>0.34381102916713802</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="4">
         <f t="shared" si="2"/>
         <v>0.17143532191539901</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>-50.284799999999997</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <v>0.50929679436414799</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>-50.286799999999999</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="4">
         <v>0.35311845563428501</v>
       </c>
     </row>
@@ -1765,4 +3192,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B589EE-45F9-400C-B804-1BFA535563A9}">
+  <dimension ref="B2:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D4</f>
+        <v>-1.8457649273907216E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <f>D17</f>
+        <v>0.15053853906843767</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>-2.2475109569471019E-2</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(B4:B13)</f>
+        <v>-1.8457649273907216E-2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4">
+        <f>D8</f>
+        <v>8.1503893601873097E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <f>D21</f>
+        <v>1.4924701216762266E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>-1.0682950612748987E-2</v>
+      </c>
+      <c r="D5">
+        <v>-1.8457649273907216E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>-1.3448371815138999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>-1.0807116475831047E-2</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>-3.8871133898360499E-3</v>
+      </c>
+      <c r="D8">
+        <f>_xlfn.STDEV.S(B4:B13)</f>
+        <v>8.1503893601873097E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>-2.2272819390927012E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>-2.2376123088845984E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>-2.3462984264079001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>-2.8974884941750045E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>-2.6189019190444029E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="14">
+        <v>0.14470568517214299</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(B17:B26)</f>
+        <v>0.15053853906843767</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="14">
+        <v>0.14112391217006398</v>
+      </c>
+      <c r="D18">
+        <v>0.15053853906843767</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="14">
+        <v>0.13903631086610299</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="14">
+        <v>0.132929579929742</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="14">
+        <v>0.13077271806305299</v>
+      </c>
+      <c r="D21">
+        <f>_xlfn.STDEV.S(B17:B26)</f>
+        <v>1.4924701216762266E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="14">
+        <v>0.15327875440838198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="14">
+        <v>0.15780148749740397</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="14">
+        <v>0.16740453414036699</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="14">
+        <v>0.16689708652171997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="15">
+        <v>0.17143532191539901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>